--- a/data/trans_dic/P22$mutaSS-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P22$mutaSS-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01782636921504519</v>
+        <v>0.01734444437977483</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01459676797156519</v>
+        <v>0.01550645636939178</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01322802242237277</v>
+        <v>0.01293268608778345</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.008785353396069926</v>
+        <v>0.008601466712288005</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02403919352338104</v>
+        <v>0.02454625849828746</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.004142150588378077</v>
+        <v>0.004171514294951977</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.003738006521261111</v>
+        <v>0.0040194242605476</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.007500237116142196</v>
+        <v>0.007744153713904936</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02359559031103101</v>
+        <v>0.0247815059282727</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01065254274994874</v>
+        <v>0.01108597605874635</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01036575200243988</v>
+        <v>0.01045267136641377</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.009984762802509562</v>
+        <v>0.009766672086380304</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0437212539180098</v>
+        <v>0.0433145376724378</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03990712336205316</v>
+        <v>0.0403597359698606</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.039523895390291</v>
+        <v>0.03927371965717065</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02825652975854232</v>
+        <v>0.02813847373194523</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05235894178915057</v>
+        <v>0.05360280321578802</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01954704589587057</v>
+        <v>0.02040027242638665</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0208354022893078</v>
+        <v>0.02032185008231598</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01986698749208492</v>
+        <v>0.01944098287392669</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0441736002257587</v>
+        <v>0.04449555844133216</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02475279592502518</v>
+        <v>0.02632437214547383</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02541362390161848</v>
+        <v>0.02542617593132345</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02082044272507054</v>
+        <v>0.02095693661683135</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.02881064026186397</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.02393208078442328</v>
+        <v>0.02393208078442327</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.02999542384447918</v>
@@ -833,7 +833,7 @@
         <v>0.01870420212592845</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.02415933979046927</v>
+        <v>0.02415933979046928</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01969751196160456</v>
+        <v>0.01957631695044944</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0118907547258284</v>
+        <v>0.0122747999658323</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0200151374556142</v>
+        <v>0.01895202604467986</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01564950031159288</v>
+        <v>0.01548618805066825</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02039895405161917</v>
+        <v>0.02002303592948837</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01138060500228885</v>
+        <v>0.01151880510550125</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.004133268904469614</v>
+        <v>0.004091840640022633</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01693194968144144</v>
+        <v>0.01811216098937193</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02349532559551737</v>
+        <v>0.02276986238408436</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0140693893570819</v>
+        <v>0.0141608037997636</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01300083060265259</v>
+        <v>0.01339543352402417</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01881986441087987</v>
+        <v>0.01907691071351597</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04354080454194958</v>
+        <v>0.04364142379294681</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03241336232101615</v>
+        <v>0.0324827465879762</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04074832821257095</v>
+        <v>0.04104153121395977</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03661508410639472</v>
+        <v>0.03570182771886295</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04409588230002447</v>
+        <v>0.04420291813392949</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02845862333644496</v>
+        <v>0.02801390438890844</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01652621186525638</v>
+        <v>0.01664126917964887</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.032549193844616</v>
+        <v>0.03309749210654545</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03944887959296905</v>
+        <v>0.03967224066359121</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02705646139745254</v>
+        <v>0.02760427243867515</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02543946550388116</v>
+        <v>0.02559184684105587</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03154970482933005</v>
+        <v>0.03149897681606449</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0159874119864854</v>
+        <v>0.01726282859138142</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01273209356903309</v>
+        <v>0.0131506355819752</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.004052018254135897</v>
+        <v>0.004049791896480174</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02561076074345115</v>
+        <v>0.02542512068779375</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01974999763398917</v>
+        <v>0.0188940061122498</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01362470801238393</v>
+        <v>0.01317097382172772</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.007492702944608839</v>
+        <v>0.00694901812724226</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.009788891363466208</v>
+        <v>0.009719869940491227</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02065179299367725</v>
+        <v>0.02099844985714283</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01569156391090197</v>
+        <v>0.01575618895443855</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.007461231890499195</v>
+        <v>0.007084978222761657</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0189348840623389</v>
+        <v>0.01894994451890264</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04388034014294382</v>
+        <v>0.04303983380130512</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03765485874078943</v>
+        <v>0.03943050936773296</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02004387812956366</v>
+        <v>0.01866398982022647</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06168754020318933</v>
+        <v>0.06119556432742056</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04729029294613687</v>
+        <v>0.04613307065649769</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03960975468791009</v>
+        <v>0.03806445278876468</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02568714802667323</v>
+        <v>0.02598089603770536</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02455084386510274</v>
+        <v>0.02420053398442987</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03908644396697908</v>
+        <v>0.03941307612754034</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03281833713747016</v>
+        <v>0.03227820202067586</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01842599918246872</v>
+        <v>0.0184275643161547</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03831803898258533</v>
+        <v>0.03858634083226969</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03964617034219797</v>
+        <v>0.03984619988413059</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02541233941279598</v>
+        <v>0.02487590527215338</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01706163306681735</v>
+        <v>0.0179133995679328</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01659144106532675</v>
+        <v>0.01707531562951693</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02611112507068067</v>
+        <v>0.02652087402716119</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01928196601995562</v>
+        <v>0.01910143014859663</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01059899367022278</v>
+        <v>0.0105233632246358</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.009637246577564195</v>
+        <v>0.009658786185733945</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03669116016612266</v>
+        <v>0.03617791931999382</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02512646572926243</v>
+        <v>0.02489864859529842</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01573728100677393</v>
+        <v>0.01566621555386691</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01533214962582543</v>
+        <v>0.01534430424773288</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06836533645938202</v>
+        <v>0.06913705385798065</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05131810738308468</v>
+        <v>0.05065091592919469</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03934304935686771</v>
+        <v>0.03854726907171618</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03504861989111909</v>
+        <v>0.0364253954322623</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05121932628084113</v>
+        <v>0.05041638847912824</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04211769352280672</v>
+        <v>0.04110391349346376</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02895171458623534</v>
+        <v>0.02976717304677144</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02072960806088157</v>
+        <v>0.0207877630565243</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05323853114220756</v>
+        <v>0.05421233692080391</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04235059190634337</v>
+        <v>0.04194445289101546</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02934026925939966</v>
+        <v>0.02955221113982542</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02518498833856547</v>
+        <v>0.02531879352680039</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.01778038187995708</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.02161554668203062</v>
+        <v>0.0216155466820306</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02916644090294719</v>
+        <v>0.02919437187652395</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02094055811079893</v>
+        <v>0.02046085171917326</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01812832959975655</v>
+        <v>0.01751972059232306</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02052006300126188</v>
+        <v>0.02040361820339289</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02800247670926981</v>
+        <v>0.028294987091663</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01638811211214173</v>
+        <v>0.01606869471503989</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.009632618333805932</v>
+        <v>0.009333127085749073</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01417469314610329</v>
+        <v>0.01414620878220927</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03022228843241527</v>
+        <v>0.03001014270192888</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01967704752396286</v>
+        <v>0.01973220308360832</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01470134099278013</v>
+        <v>0.01502506327659705</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01868242915104561</v>
+        <v>0.01851894443806071</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04328936756473852</v>
+        <v>0.04271643767966293</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03266037997949551</v>
+        <v>0.03253411639901407</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02813095491986593</v>
+        <v>0.02894674940122746</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03258275211582829</v>
+        <v>0.03198836988934792</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03951868277524719</v>
+        <v>0.04042302780574287</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02631232518745829</v>
+        <v>0.0256841587130285</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.01727917824239959</v>
+        <v>0.01697451039420108</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0207172151747542</v>
+        <v>0.02074277396815448</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03919773880154181</v>
+        <v>0.03937578291486978</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.02745895654768443</v>
+        <v>0.02740644164318788</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02120661281498417</v>
+        <v>0.02148627272066548</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.02538084475215106</v>
+        <v>0.02520091799938863</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12333</v>
+        <v>12000</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>10268</v>
+        <v>10908</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>8911</v>
+        <v>8712</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6068</v>
+        <v>5941</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>16527</v>
+        <v>16876</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2887</v>
+        <v>2908</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2515</v>
+        <v>2704</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5499</v>
+        <v>5677</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>32547</v>
+        <v>34183</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>14919</v>
+        <v>15526</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>13957</v>
+        <v>14074</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>14217</v>
+        <v>13906</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>30249</v>
+        <v>29967</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>28073</v>
+        <v>28392</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26625</v>
+        <v>26456</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>19517</v>
+        <v>19436</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>35997</v>
+        <v>36852</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>13625</v>
+        <v>14220</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>14019</v>
+        <v>13673</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>14565</v>
+        <v>14252</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>60931</v>
+        <v>61375</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>34667</v>
+        <v>36868</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>34219</v>
+        <v>34236</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>29645</v>
+        <v>29839</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>18925</v>
+        <v>18809</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>12092</v>
+        <v>12483</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>20445</v>
+        <v>19359</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>16415</v>
+        <v>16244</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>19754</v>
+        <v>19390</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>11747</v>
+        <v>11890</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>4303</v>
+        <v>4260</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>18131</v>
+        <v>19395</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>45327</v>
+        <v>43927</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>28830</v>
+        <v>29018</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>26814</v>
+        <v>27628</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>39894</v>
+        <v>40438</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>41834</v>
+        <v>41931</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>32963</v>
+        <v>33034</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>41624</v>
+        <v>41924</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>38406</v>
+        <v>37448</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>42702</v>
+        <v>42806</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>29375</v>
+        <v>28916</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>17204</v>
+        <v>17324</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>34855</v>
+        <v>35442</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>76104</v>
+        <v>76535</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>55443</v>
+        <v>56565</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>52469</v>
+        <v>52783</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>66878</v>
+        <v>66770</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>10833</v>
+        <v>11697</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9646</v>
+        <v>9963</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>20567</v>
+        <v>20418</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>13506</v>
+        <v>12920</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>10589</v>
+        <v>10236</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5853</v>
+        <v>5428</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>7951</v>
+        <v>7895</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>28116</v>
+        <v>28588</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>24083</v>
+        <v>24183</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>11481</v>
+        <v>10902</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>30586</v>
+        <v>30610</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>29733</v>
+        <v>29163</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>28528</v>
+        <v>29873</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>15187</v>
+        <v>14142</v>
       </c>
       <c r="F15" s="6" t="n">
+        <v>49145</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>31548</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>29583</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>20294</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>19657</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>53658</v>
+      </c>
+      <c r="L15" s="6" t="n">
         <v>49540</v>
       </c>
-      <c r="G15" s="6" t="n">
-        <v>32339</v>
-      </c>
-      <c r="H15" s="6" t="n">
-        <v>30784</v>
-      </c>
-      <c r="I15" s="6" t="n">
-        <v>20065</v>
-      </c>
-      <c r="J15" s="6" t="n">
-        <v>19942</v>
-      </c>
-      <c r="K15" s="6" t="n">
-        <v>53213</v>
-      </c>
-      <c r="L15" s="6" t="n">
-        <v>50369</v>
-      </c>
       <c r="M15" s="6" t="n">
-        <v>28354</v>
+        <v>28357</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>61896</v>
+        <v>62330</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>37263</v>
+        <v>37451</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>24084</v>
+        <v>23576</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>15980</v>
+        <v>16778</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>16427</v>
+        <v>16906</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>27089</v>
+        <v>27514</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>20283</v>
+        <v>20093</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>11063</v>
+        <v>10984</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>10767</v>
+        <v>10791</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>72551</v>
+        <v>71536</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>50244</v>
+        <v>49788</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>31166</v>
+        <v>31025</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>32310</v>
+        <v>32335</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>64257</v>
+        <v>64982</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>48636</v>
+        <v>48004</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>36849</v>
+        <v>36103</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>34700</v>
+        <v>36063</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>53137</v>
+        <v>52304</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>44304</v>
+        <v>43237</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>30219</v>
+        <v>31070</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>23160</v>
+        <v>23225</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>105270</v>
+        <v>107196</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>84686</v>
+        <v>83874</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>58105</v>
+        <v>58525</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>53073</v>
+        <v>53355</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>95378</v>
+        <v>95470</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>71738</v>
+        <v>70095</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>61445</v>
+        <v>59382</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>72492</v>
+        <v>72081</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>94569</v>
+        <v>95557</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>58314</v>
+        <v>57177</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>34087</v>
+        <v>33027</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>52921</v>
+        <v>52814</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>200897</v>
+        <v>199487</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>137427</v>
+        <v>137812</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>101853</v>
+        <v>104096</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>135751</v>
+        <v>134563</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>141562</v>
+        <v>139689</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>111888</v>
+        <v>111455</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>95348</v>
+        <v>98113</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>115107</v>
+        <v>113007</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>133461</v>
+        <v>136515</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>93627</v>
+        <v>91392</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>61146</v>
+        <v>60068</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>77347</v>
+        <v>77442</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>260559</v>
+        <v>261743</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>191776</v>
+        <v>191410</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>146923</v>
+        <v>148861</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>184423</v>
+        <v>183116</v>
       </c>
     </row>
     <row r="24">
